--- a/schuelerliste.xlsx
+++ b/schuelerliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dedde/Library/Mobile Documents/com~apple~CloudDocs/Dedde/Projekt Grundschule/Klasseneinteilung_Grundschule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0705C7DC-371D-674C-BABF-F31852729954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8742116-92BC-8F47-A771-BA7F24E09593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{AF63A95C-4F02-444B-9437-85E28EE941CC}"/>
   </bookViews>
@@ -600,9 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B3805-1D00-5247-B30E-AB9E6779964A}">
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD302"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2720,1203 +2722,28 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <v>300</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4242440-1EBA-A147-B43D-B24040FB6B64}">
+          <x14:formula1>
+            <xm:f>'Dropdown Quellen'!$A$14:$A$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D66</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7F81139-C8D4-BA42-8A4D-3D9C0054537E}">
           <x14:formula1>
             <xm:f>'Dropdown Quellen'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F329</xm:sqref>
+          <xm:sqref>F2:F93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B2AE4772-511C-6443-A159-8EDB2D718B07}">
           <x14:formula1>
             <xm:f>'Dropdown Quellen'!$A$7:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G311</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4242440-1EBA-A147-B43D-B24040FB6B64}">
-          <x14:formula1>
-            <xm:f>'Dropdown Quellen'!$A$14:$A$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D299</xm:sqref>
+          <xm:sqref>G2:G75</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
